--- a/data/trans_orig/P36BPD14_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD14_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>61076</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>44823</v>
+        <v>46281</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>81709</v>
+        <v>84068</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1226080450156363</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08998039416613453</v>
+        <v>0.09290808995020702</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1640281362286595</v>
+        <v>0.1687638942421195</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>63</v>
@@ -762,19 +762,19 @@
         <v>40596</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>31346</v>
+        <v>31553</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>51942</v>
+        <v>52618</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06625596501694732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0511588549093089</v>
+        <v>0.0514964595849907</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08477249532628642</v>
+        <v>0.08587692446525237</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>111</v>
@@ -783,19 +783,19 @@
         <v>101672</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>82273</v>
+        <v>82301</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>125401</v>
+        <v>126446</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0915257782477167</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07406297177666288</v>
+        <v>0.07408752539123925</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1128865822086507</v>
+        <v>0.1138273698254067</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>258928</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>234308</v>
+        <v>235800</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>283952</v>
+        <v>283515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5197918311888118</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4703673231751239</v>
+        <v>0.4733627214153006</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5700277139823665</v>
+        <v>0.5691486907126637</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>457</v>
@@ -833,19 +833,19 @@
         <v>324694</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>303073</v>
+        <v>301857</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>347875</v>
+        <v>346079</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5299243378100138</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4946366256250682</v>
+        <v>0.4926527058105209</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.567756428454875</v>
+        <v>0.5648258517758434</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>699</v>
@@ -854,19 +854,19 @@
         <v>583622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>549161</v>
+        <v>552585</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>616162</v>
+        <v>617851</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.525380644837487</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4943581580562075</v>
+        <v>0.497440981676427</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5546732712733201</v>
+        <v>0.5561938993663181</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>178134</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>154894</v>
+        <v>155339</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>203903</v>
+        <v>200234</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3576001237955519</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3109456545948004</v>
+        <v>0.3118395411934106</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4093299844052627</v>
+        <v>0.4019652735238199</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>335</v>
@@ -904,19 +904,19 @@
         <v>247428</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>225394</v>
+        <v>225789</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>270390</v>
+        <v>269579</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4038196971730389</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3678596203933458</v>
+        <v>0.3685045566969109</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.441295404162057</v>
+        <v>0.4399721659631398</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>499</v>
@@ -925,19 +925,19 @@
         <v>425562</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>394894</v>
+        <v>391564</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>457248</v>
+        <v>457044</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3830935769147963</v>
+        <v>0.3830935769147962</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3554864935548004</v>
+        <v>0.3524881702782546</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4116178709286821</v>
+        <v>0.4114340630323217</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>69117</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>51265</v>
+        <v>53762</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>88322</v>
+        <v>90815</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.07212047688467763</v>
+        <v>0.07212047688467761</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05349257567813523</v>
+        <v>0.05609830723469997</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09216050039649334</v>
+        <v>0.09476220967869049</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>108</v>
@@ -1050,19 +1050,19 @@
         <v>74758</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>59727</v>
+        <v>62528</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>89264</v>
+        <v>93327</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.06711670687616354</v>
+        <v>0.06711670687616353</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05362197706102124</v>
+        <v>0.05613655080497768</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08013979277965563</v>
+        <v>0.08378684735548662</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>166</v>
@@ -1071,19 +1071,19 @@
         <v>143875</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>121635</v>
+        <v>122020</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>168808</v>
+        <v>170151</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06943083867124743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05869814656359126</v>
+        <v>0.05888389101809186</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08146309013469648</v>
+        <v>0.08211082567465007</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>526630</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>495323</v>
+        <v>490061</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>560706</v>
+        <v>557189</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.5495169531703645</v>
+        <v>0.5495169531703644</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5168500837613718</v>
+        <v>0.5113594408259563</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5850744476885454</v>
+        <v>0.5814047493055451</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>840</v>
@@ -1121,19 +1121,19 @@
         <v>595394</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>565055</v>
+        <v>565044</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>626405</v>
+        <v>625737</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5345328842043356</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5072956471555814</v>
+        <v>0.5072859241470841</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.5623742189747121</v>
+        <v>0.5617741975630882</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1337</v>
@@ -1142,19 +1142,19 @@
         <v>1122023</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1078344</v>
+        <v>1077823</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1166395</v>
+        <v>1169063</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5414626812083978</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.520384096619488</v>
+        <v>0.5201325204435004</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5628753135013467</v>
+        <v>0.5641629357941623</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>362604</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>331649</v>
+        <v>330163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>394526</v>
+        <v>396211</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3783625699449579</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3460623162535401</v>
+        <v>0.3445115234052273</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4116719660008656</v>
+        <v>0.4134307670851659</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>655</v>
@@ -1192,19 +1192,19 @@
         <v>443706</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>415042</v>
+        <v>413370</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>476194</v>
+        <v>472185</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3983504089195009</v>
+        <v>0.3983504089195007</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3726165665557652</v>
+        <v>0.3711151421426601</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4275172770014911</v>
+        <v>0.4239182406054238</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1008</v>
@@ -1213,19 +1213,19 @@
         <v>806310</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>762606</v>
+        <v>758814</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>846337</v>
+        <v>850302</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3891064801203548</v>
+        <v>0.3891064801203547</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.368015905141483</v>
+        <v>0.3661859786174089</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.408422753051477</v>
+        <v>0.4103361428206307</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>73664</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56434</v>
+        <v>56210</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>92337</v>
+        <v>92683</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07053809489532675</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05403885371850742</v>
+        <v>0.0538239262740712</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08841842685984019</v>
+        <v>0.08874987188399805</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>148</v>
@@ -1338,19 +1338,19 @@
         <v>107723</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91874</v>
+        <v>90557</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>126507</v>
+        <v>127113</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.102940431932016</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08779423146889705</v>
+        <v>0.08653597597042778</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1208897904812873</v>
+        <v>0.1214688796007648</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>217</v>
@@ -1359,19 +1359,19 @@
         <v>181388</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>156708</v>
+        <v>158674</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>208929</v>
+        <v>212098</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.08675585898477636</v>
+        <v>0.08675585898477638</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07495184227745499</v>
+        <v>0.07589202745159618</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09992850045413668</v>
+        <v>0.1014443716310735</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>450943</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>418494</v>
+        <v>412962</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>485613</v>
+        <v>486485</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4318047530751994</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4007328147030377</v>
+        <v>0.3954359680357813</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4650034801283338</v>
+        <v>0.4658376448229056</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>580</v>
@@ -1409,19 +1409,19 @@
         <v>418589</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>393357</v>
+        <v>388999</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>448272</v>
+        <v>447680</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4000032208229015</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.375891871830592</v>
+        <v>0.371727250143129</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4283686482794055</v>
+        <v>0.4278027204914786</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1039</v>
@@ -1430,19 +1430,19 @@
         <v>869532</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>826507</v>
+        <v>821585</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>911851</v>
+        <v>912952</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4158876990933584</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3953090122679142</v>
+        <v>0.3929549240697225</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4361282579850734</v>
+        <v>0.436654991915738</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>519714</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484715</v>
+        <v>483357</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>552184</v>
+        <v>557254</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4976571520294739</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4641429489350297</v>
+        <v>0.4628424765881373</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5287488548779257</v>
+        <v>0.5336035407550481</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>786</v>
@@ -1480,19 +1480,19 @@
         <v>520152</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>491869</v>
+        <v>492524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>548284</v>
+        <v>548603</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4970563472450824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4700292963859088</v>
+        <v>0.4706554445921462</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.523939568866014</v>
+        <v>0.5242448259963857</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1284</v>
@@ -1501,19 +1501,19 @@
         <v>1039866</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>993530</v>
+        <v>996475</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1083014</v>
+        <v>1084863</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4973564419218652</v>
+        <v>0.4973564419218653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4751945174029454</v>
+        <v>0.4766031053361505</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5179939042541989</v>
+        <v>0.5188779043484718</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>117409</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>95229</v>
+        <v>96946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>142835</v>
+        <v>144216</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1207156470456081</v>
+        <v>0.120715647045608</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09791059228562761</v>
+        <v>0.09967620236252331</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1468577102657966</v>
+        <v>0.1482771705448068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>195</v>
@@ -1626,19 +1626,19 @@
         <v>146852</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>126652</v>
+        <v>127396</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>167790</v>
+        <v>169418</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1617498605844314</v>
+        <v>0.1617498605844315</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1395003517485794</v>
+        <v>0.1403195179365294</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1848121457529875</v>
+        <v>0.1866054777630936</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>293</v>
@@ -1647,19 +1647,19 @@
         <v>264261</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>234773</v>
+        <v>236046</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>299654</v>
+        <v>296777</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1405266858559569</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1248455286403806</v>
+        <v>0.1255226590119848</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1593473851888672</v>
+        <v>0.1578173588995555</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>266213</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>236505</v>
+        <v>236854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>296969</v>
+        <v>296596</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2737100618807524</v>
+        <v>0.2737100618807523</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.243165412779333</v>
+        <v>0.243524242468225</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3053320040762766</v>
+        <v>0.3049486678580081</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>333</v>
@@ -1697,19 +1697,19 @@
         <v>239345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>215563</v>
+        <v>217706</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>264358</v>
+        <v>265913</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2636255281405484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2374313766681219</v>
+        <v>0.2397913972982561</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2911762755526646</v>
+        <v>0.2928894372962257</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>599</v>
@@ -1718,19 +1718,19 @@
         <v>505558</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>470325</v>
+        <v>467188</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>549996</v>
+        <v>543003</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.2688413176772736</v>
+        <v>0.2688413176772737</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2501052734163349</v>
+        <v>0.2484374865742049</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2924723248784325</v>
+        <v>0.2887535239346004</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>588988</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>556610</v>
+        <v>553012</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>620335</v>
+        <v>621410</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.6055742910736398</v>
+        <v>0.6055742910736396</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5722840887299167</v>
+        <v>0.5685844948972791</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6378037654461439</v>
+        <v>0.6389092505862997</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>791</v>
@@ -1768,19 +1768,19 @@
         <v>521699</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>493322</v>
+        <v>493732</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>548627</v>
+        <v>550133</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5746246112750203</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5433681568114628</v>
+        <v>0.5438195828118428</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6042834683205579</v>
+        <v>0.6059429441110658</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>1369</v>
@@ -1789,19 +1789,19 @@
         <v>1110688</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1066062</v>
+        <v>1066956</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>1152056</v>
+        <v>1154074</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5906319964667696</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5669015537733404</v>
+        <v>0.567376788023877</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6126304664325062</v>
+        <v>0.6137036051003839</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>321266</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>284020</v>
+        <v>285620</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>362057</v>
+        <v>365818</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.09249274465249589</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0817694331615568</v>
+        <v>0.08223014246177981</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1042365208498399</v>
+        <v>0.1053190821406954</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>514</v>
@@ -1914,19 +1914,19 @@
         <v>369930</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>341390</v>
+        <v>338197</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>403434</v>
+        <v>404303</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1004989531609152</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09274551253615299</v>
+        <v>0.09187801547792847</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1096009247665868</v>
+        <v>0.1098370422947069</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>787</v>
@@ -1935,19 +1935,19 @@
         <v>691196</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>634433</v>
+        <v>645556</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>740845</v>
+        <v>746339</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.09661196024178731</v>
+        <v>0.09661196024178728</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08867779625891388</v>
+        <v>0.0902325271725668</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1035515412604503</v>
+        <v>0.10431953529079</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>1502714</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1434559</v>
+        <v>1437916</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1569766</v>
+        <v>1562623</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.4326323370119944</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4130104890794603</v>
+        <v>0.4139769188978092</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4519367068974029</v>
+        <v>0.449880241243482</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>2210</v>
@@ -1985,19 +1985,19 @@
         <v>1578021</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1528141</v>
+        <v>1522981</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1636247</v>
+        <v>1633143</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4287011317006177</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4151499799737943</v>
+        <v>0.4137481994943843</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4445191444815724</v>
+        <v>0.4436760198787107</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3674</v>
@@ -2006,19 +2006,19 @@
         <v>3080736</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2990879</v>
+        <v>2996016</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>3157941</v>
+        <v>3163036</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.4306097214148239</v>
+        <v>0.4306097214148238</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.4180500540555837</v>
+        <v>0.4187680769862192</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.4414010458366222</v>
+        <v>0.4421132181451915</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>1649441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1582220</v>
+        <v>1585163</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1715660</v>
+        <v>1716986</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4748749183355097</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4555221359088465</v>
+        <v>0.4563693919835373</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4939395352490851</v>
+        <v>0.494321384824651</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2567</v>
@@ -2056,19 +2056,19 @@
         <v>1732984</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1678290</v>
+        <v>1679627</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1785747</v>
+        <v>1784919</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4707999151384671</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4559412304846689</v>
+        <v>0.4563043121225358</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4851340736931115</v>
+        <v>0.4849091077925521</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4160</v>
@@ -2077,19 +2077,19 @@
         <v>3382425</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3294267</v>
+        <v>3301246</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3468849</v>
+        <v>3469907</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4727783183433888</v>
+        <v>0.4727783183433887</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4604560870957256</v>
+        <v>0.4614315031013566</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4848582279313241</v>
+        <v>0.4850060885003933</v>
       </c>
     </row>
     <row r="23">
